--- a/2COURSE/2SEM/Physics/lab_3_05/3.05.xlsx
+++ b/2COURSE/2SEM/Physics/lab_3_05/3.05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graev\OneDrive\Рабочий стол\ITMO\2COURSE\2SEM\Physics\lab_3_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C4CEF7-7F99-4F6B-93A3-B6DC867D8212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1344824-D334-4690-AB76-A74057C54ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-4275" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -301,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -320,19 +320,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1112,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1232,11 +1227,11 @@
         <v>1.62</v>
       </c>
       <c r="O3" s="4">
-        <f t="shared" ref="O3:O14" si="3">M18</f>
+        <f>M18</f>
         <v>1557.6923076923078</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P14" si="4">LN(M18)</f>
+        <f t="shared" ref="P3:P14" si="3">LN(M18)</f>
         <v>7.3509607150731489</v>
       </c>
       <c r="Q3" s="3">
@@ -1244,19 +1239,19 @@
         <v>3.3898305084745761</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R14" si="5">L3-273</f>
+        <f t="shared" ref="R3:R14" si="4">L3-273</f>
         <v>77</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S8" si="6">$S$26-P18</f>
+        <f t="shared" ref="S3:S8" si="5">$S$26-P18</f>
         <v>-1.4133167532560421E-4</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T8" si="7">D18-$K$18</f>
+        <f t="shared" ref="T3:T8" si="6">D18-$K$18</f>
         <v>6.1506650196215928E-22</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U8" si="8">D26-$K$21</f>
+        <f t="shared" ref="U3:U8" si="7">D26-$K$21</f>
         <v>3.841937135444673E-3</v>
       </c>
     </row>
@@ -1292,7 +1287,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:L14" si="9">L3-5</f>
+        <f t="shared" ref="L4:L14" si="8">L3-5</f>
         <v>345</v>
       </c>
       <c r="M4" s="1">
@@ -1302,11 +1297,11 @@
         <v>1.6040000000000001</v>
       </c>
       <c r="O4" s="4">
+        <f t="shared" ref="O3:O14" si="9">M19</f>
+        <v>1529.0753098188752</v>
+      </c>
+      <c r="P4" s="1">
         <f t="shared" si="3"/>
-        <v>1529.0753098188752</v>
-      </c>
-      <c r="P4" s="1">
-        <f t="shared" si="4"/>
         <v>7.3324184590122998</v>
       </c>
       <c r="Q4" s="3">
@@ -1314,19 +1309,19 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="R4">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="S4">
         <f t="shared" si="5"/>
-        <v>72</v>
-      </c>
-      <c r="S4">
+        <v>-1.6369937438649902E-4</v>
+      </c>
+      <c r="T4">
         <f t="shared" si="6"/>
-        <v>-1.6369937438649902E-4</v>
-      </c>
-      <c r="T4">
+        <v>3.0499422497416569E-21</v>
+      </c>
+      <c r="U4">
         <f t="shared" si="7"/>
-        <v>3.0499422497416569E-21</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="8"/>
         <v>1.905108854548776E-2</v>
       </c>
     </row>
@@ -1364,7 +1359,7 @@
         <v>3</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>340</v>
       </c>
       <c r="M5" s="1">
@@ -1374,11 +1369,11 @@
         <v>1.599</v>
       </c>
       <c r="O5" s="4">
+        <f t="shared" si="9"/>
+        <v>1511.3421550094517</v>
+      </c>
+      <c r="P5" s="1">
         <f t="shared" si="3"/>
-        <v>1511.3421550094517</v>
-      </c>
-      <c r="P5" s="1">
-        <f t="shared" si="4"/>
         <v>7.3207533793978463</v>
       </c>
       <c r="Q5" s="3">
@@ -1386,19 +1381,19 @@
         <v>3.278688524590164</v>
       </c>
       <c r="R5">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="S5">
         <f t="shared" si="5"/>
-        <v>67</v>
-      </c>
-      <c r="S5">
+        <v>-1.33557188477006E-4</v>
+      </c>
+      <c r="T5">
         <f t="shared" si="6"/>
-        <v>-1.33557188477006E-4</v>
-      </c>
-      <c r="T5">
+        <v>-2.6093664364251212E-21</v>
+      </c>
+      <c r="U5">
         <f t="shared" si="7"/>
-        <v>-2.6093664364251212E-21</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="8"/>
         <v>-1.6299086001438146E-2</v>
       </c>
     </row>
@@ -1436,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>335</v>
       </c>
       <c r="M6" s="1">
@@ -1446,11 +1441,11 @@
         <v>1.5860000000000001</v>
       </c>
       <c r="O6" s="4">
+        <f t="shared" si="9"/>
+        <v>1476.7225325884544</v>
+      </c>
+      <c r="P6" s="1">
         <f t="shared" si="3"/>
-        <v>1476.7225325884544</v>
-      </c>
-      <c r="P6" s="1">
-        <f t="shared" si="4"/>
         <v>7.2975804061081204</v>
       </c>
       <c r="Q6" s="3">
@@ -1458,19 +1453,19 @@
         <v>3.225806451612903</v>
       </c>
       <c r="R6">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="S6">
         <f t="shared" si="5"/>
-        <v>62</v>
-      </c>
-      <c r="S6">
+        <v>6.2541120065183649E-5</v>
+      </c>
+      <c r="T6">
         <f t="shared" si="6"/>
-        <v>6.2541120065183649E-5</v>
-      </c>
-      <c r="T6">
+        <v>8.340157203991177E-22</v>
+      </c>
+      <c r="U6">
         <f t="shared" si="7"/>
-        <v>8.340157203991177E-22</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="8"/>
         <v>5.2095764564060731E-3</v>
       </c>
     </row>
@@ -1508,7 +1503,7 @@
         <v>5</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>330</v>
       </c>
       <c r="M7" s="1">
@@ -1518,11 +1513,11 @@
         <v>1.5740000000000001</v>
       </c>
       <c r="O7" s="4">
+        <f t="shared" si="9"/>
+        <v>1446.6911764705883</v>
+      </c>
+      <c r="P7" s="1">
         <f t="shared" si="3"/>
-        <v>1446.6911764705883</v>
-      </c>
-      <c r="P7" s="1">
-        <f t="shared" si="4"/>
         <v>7.2770342805435977</v>
       </c>
       <c r="Q7" s="3">
@@ -1530,19 +1525,19 @@
         <v>3.1746031746031744</v>
       </c>
       <c r="R7">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="S7">
         <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-      <c r="S7">
+        <v>1.8875207077892475E-4</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="6"/>
-        <v>1.8875207077892475E-4</v>
-      </c>
-      <c r="T7">
+        <v>2.8148949614072733E-21</v>
+      </c>
+      <c r="U7">
         <f t="shared" si="7"/>
-        <v>2.8148949614072733E-21</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="8"/>
         <v>1.7582894614007527E-2</v>
       </c>
     </row>
@@ -1576,45 +1571,45 @@
       <c r="I8">
         <v>3.13</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="20">
         <v>6</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="20">
+        <f t="shared" si="8"/>
+        <v>325</v>
+      </c>
+      <c r="M8" s="20">
+        <v>1101</v>
+      </c>
+      <c r="N8" s="21">
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="O8" s="18">
         <f t="shared" si="9"/>
-        <v>325</v>
-      </c>
-      <c r="M8" s="26">
-        <v>1101</v>
-      </c>
-      <c r="N8" s="27">
-        <v>1.5640000000000001</v>
-      </c>
-      <c r="O8" s="24">
+        <v>1420.5267938237967</v>
+      </c>
+      <c r="P8" s="20">
         <f t="shared" si="3"/>
-        <v>1420.5267938237967</v>
-      </c>
-      <c r="P8" s="26">
-        <f t="shared" si="4"/>
         <v>7.2587830633647137</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="Q8" s="21">
         <f>10^3/L9</f>
         <v>3.125</v>
       </c>
-      <c r="R8" s="28">
+      <c r="R8" s="22">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="S8">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-      <c r="S8">
+        <v>1.872950473450069E-4</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="6"/>
-        <v>1.872950473450069E-4</v>
-      </c>
-      <c r="T8">
+        <v>-4.7045529970850619E-21</v>
+      </c>
+      <c r="U8">
         <f t="shared" si="7"/>
-        <v>-4.7045529970850619E-21</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="8"/>
         <v>-2.9386410749908221E-2</v>
       </c>
     </row>
@@ -1652,7 +1647,7 @@
         <v>7</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>320</v>
       </c>
       <c r="M9" s="1">
@@ -1662,11 +1657,11 @@
         <v>1.5509999999999999</v>
       </c>
       <c r="O9" s="4">
+        <f t="shared" si="9"/>
+        <v>1391.0313901345291</v>
+      </c>
+      <c r="P9" s="1">
         <f t="shared" si="3"/>
-        <v>1391.0313901345291</v>
-      </c>
-      <c r="P9" s="1">
-        <f t="shared" si="4"/>
         <v>7.2378007582644566</v>
       </c>
       <c r="Q9" s="3">
@@ -1674,7 +1669,7 @@
         <v>3.0769230769230771</v>
       </c>
       <c r="R9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
     </row>
@@ -1712,7 +1707,7 @@
         <v>8</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>315</v>
       </c>
       <c r="M10" s="1">
@@ -1722,11 +1717,11 @@
         <v>1.5389999999999999</v>
       </c>
       <c r="O10" s="4">
+        <f t="shared" si="9"/>
+        <v>1361.9469026548672</v>
+      </c>
+      <c r="P10" s="1">
         <f t="shared" si="3"/>
-        <v>1361.9469026548672</v>
-      </c>
-      <c r="P10" s="1">
-        <f t="shared" si="4"/>
         <v>7.2166705011146304</v>
       </c>
       <c r="Q10" s="3">
@@ -1734,7 +1729,7 @@
         <v>3.0303030303030303</v>
       </c>
       <c r="R10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
     </row>
@@ -1772,7 +1767,7 @@
         <v>9</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>310</v>
       </c>
       <c r="M11" s="1">
@@ -1782,11 +1777,11 @@
         <v>1.532</v>
       </c>
       <c r="O11" s="4">
+        <f t="shared" si="9"/>
+        <v>1343.8596491228072</v>
+      </c>
+      <c r="P11" s="1">
         <f t="shared" si="3"/>
-        <v>1343.8596491228072</v>
-      </c>
-      <c r="P11" s="1">
-        <f t="shared" si="4"/>
         <v>7.2033010878941326</v>
       </c>
       <c r="Q11" s="3">
@@ -1794,7 +1789,7 @@
         <v>2.9850746268656718</v>
       </c>
       <c r="R11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
     </row>
@@ -1832,7 +1827,7 @@
         <v>10</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>305</v>
       </c>
       <c r="M12" s="1">
@@ -1842,11 +1837,11 @@
         <v>1.5189999999999999</v>
       </c>
       <c r="O12" s="4">
+        <f t="shared" si="9"/>
+        <v>1315.151515151515</v>
+      </c>
+      <c r="P12" s="1">
         <f t="shared" si="3"/>
-        <v>1315.151515151515</v>
-      </c>
-      <c r="P12" s="1">
-        <f t="shared" si="4"/>
         <v>7.1817071586220163</v>
       </c>
       <c r="Q12" s="3">
@@ -1854,7 +1849,7 @@
         <v>2.9411764705882355</v>
       </c>
       <c r="R12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
@@ -1892,7 +1887,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="M13" s="1">
@@ -1902,11 +1897,11 @@
         <v>1.508</v>
       </c>
       <c r="O13" s="4">
+        <f t="shared" si="9"/>
+        <v>1288.8888888888889</v>
+      </c>
+      <c r="P13" s="1">
         <f t="shared" si="3"/>
-        <v>1288.8888888888889</v>
-      </c>
-      <c r="P13" s="1">
-        <f t="shared" si="4"/>
         <v>7.1615357997582363</v>
       </c>
       <c r="Q13" s="3">
@@ -1914,7 +1909,7 @@
         <v>2.8985507246376812</v>
       </c>
       <c r="R13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
     </row>
@@ -1952,7 +1947,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>295</v>
       </c>
       <c r="M14" s="1">
@@ -1962,11 +1957,11 @@
         <v>1.4950000000000001</v>
       </c>
       <c r="O14" s="4">
+        <f t="shared" si="9"/>
+        <v>1262.668918918919</v>
+      </c>
+      <c r="P14" s="1">
         <f t="shared" si="3"/>
-        <v>1262.668918918919</v>
-      </c>
-      <c r="P14" s="1">
-        <f t="shared" si="4"/>
         <v>7.1409829493629733</v>
       </c>
       <c r="Q14" s="3">
@@ -1974,7 +1969,7 @@
         <v>2.8571428571428572</v>
       </c>
       <c r="R14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
     </row>
@@ -2074,28 +2069,27 @@
         <f>(G18^2+(2/3*E18)^2)^(1/2)</f>
         <v>4.9256414328550414E-21</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18" t="s">
+      <c r="J18" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18">
         <f>AVERAGE(D18:D23)</f>
         <v>1.1532418731193043E-19</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" ref="M18:M29" si="14">N3/M3*10^6</f>
+        <f>N3/M3*10^6</f>
         <v>1557.6923076923078</v>
       </c>
       <c r="N18" s="6">
-        <f t="shared" ref="N18:N29" si="15">((1/M3)^2+(0.001/N3)^2)^(1/2)*M18</f>
+        <f t="shared" ref="N18:N29" si="14">((1/M3)^2+(0.001/N3)^2)^(1/2)*M18</f>
         <v>1.7798607619575653</v>
       </c>
       <c r="P18" s="7">
-        <f t="shared" ref="P18:P23" si="16">-(M18-M24)/(M18*R9-M24*R3)</f>
+        <f t="shared" ref="P18:P23" si="15">-(M18-M24)/(M18*R9-M24*R3)</f>
         <v>4.916558927729184E-3</v>
       </c>
       <c r="Q18">
-        <f t="shared" ref="Q18:Q23" si="17">(((R9*M24-R3*M24)/(R9*M18^2-R3*M18*M24-R9*M18*M24+R3*M24^2)*N18)^2+((R9*M24-R3*M24)/(R3*M18^2-R3*M18*M24-R9*M18*M24+R9*M24^2)*N18)^2)^(1/2)*100</f>
+        <f t="shared" ref="Q18:Q23" si="16">(((R9*M24-R3*M24)/(R9*M18^2-R3*M18*M24-R9*M18*M24+R3*M24^2)*N18)^2+((R9*M24-R3*M24)/(R3*M18^2-R3*M18*M24-R9*M18*M24+R9*M24^2)*N18)^2)^(1/2)*100</f>
         <v>1.5477909417472349</v>
       </c>
       <c r="R18">
@@ -2103,21 +2097,21 @@
         <v>6.8124352205131461E-5</v>
       </c>
       <c r="S18">
-        <f t="shared" ref="S18:S23" si="18">P18*Q18/100</f>
+        <f t="shared" ref="S18:S23" si="17">P18*Q18/100</f>
         <v>7.6098053729057284E-5</v>
       </c>
       <c r="T18">
-        <f t="shared" ref="T18:T23" si="19">2.57*$R$18</f>
+        <f t="shared" ref="T18:T23" si="18">2.57*$R$18</f>
         <v>1.7507958516718784E-4</v>
       </c>
       <c r="U18" s="7">
-        <f t="shared" ref="U18:U23" si="20">($T$18^2+(2/3*S18)^2)^(1/2)</f>
+        <f t="shared" ref="U18:U23" si="19">($T$18^2+(2/3*S18)^2)^(1/2)</f>
         <v>1.8228165184870521E-4</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <f t="shared" ref="A19:A29" si="21">E4/D4*10^6</f>
+        <f t="shared" ref="A19:A29" si="20">E4/D4*10^6</f>
         <v>253.39366515837108</v>
       </c>
       <c r="B19" s="6">
@@ -2125,7 +2119,7 @@
         <v>0.93357895459141782</v>
       </c>
       <c r="D19" s="16">
-        <f t="shared" ref="D19:D23" si="22">2*1.38*10^-23*(C4*C10/(C10-C4))*LN(F4/F10)</f>
+        <f t="shared" ref="D19:D23" si="21">2*1.38*10^-23*(C4*C10/(C10-C4))*LN(F4/F10)</f>
         <v>1.1837412956167208E-19</v>
       </c>
       <c r="E19">
@@ -2141,53 +2135,52 @@
         <v>3.2250268565228426E-21</v>
       </c>
       <c r="H19" s="16">
-        <f t="shared" ref="H19:H23" si="23">(G19^2+(2/3*E19)^2)^(1/2)</f>
+        <f t="shared" ref="H19:H23" si="22">(G19^2+(2/3*E19)^2)^(1/2)</f>
         <v>4.9996089422335275E-21</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18" t="s">
+      <c r="J19" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19">
         <f>AVERAGE(H18:H23)</f>
         <v>4.9916068407913125E-21</v>
       </c>
       <c r="M19" s="4">
+        <f>N4/M4*10^6</f>
+        <v>1529.0753098188752</v>
+      </c>
+      <c r="N19" s="6">
         <f t="shared" si="14"/>
-        <v>1529.0753098188752</v>
-      </c>
-      <c r="N19" s="6">
-        <f t="shared" si="15"/>
         <v>1.7416958475272797</v>
       </c>
       <c r="P19" s="7">
+        <f>-(M19-M25)/(M19*R10-M25*R4)</f>
+        <v>4.9389266267900788E-3</v>
+      </c>
+      <c r="Q19">
         <f t="shared" si="16"/>
-        <v>4.9389266267900788E-3</v>
-      </c>
-      <c r="Q19">
+        <v>1.4937926372372257</v>
+      </c>
+      <c r="R19">
+        <f t="shared" ref="R19:R23" si="23">R18</f>
+        <v>6.8124352205131461E-5</v>
+      </c>
+      <c r="S19">
         <f t="shared" si="17"/>
-        <v>1.4937926372372257</v>
-      </c>
-      <c r="R19">
-        <f t="shared" ref="R19:R23" si="24">R18</f>
-        <v>6.8124352205131461E-5</v>
-      </c>
-      <c r="S19">
+        <v>7.3777322309539066E-5</v>
+      </c>
+      <c r="T19">
         <f t="shared" si="18"/>
-        <v>7.3777322309539066E-5</v>
-      </c>
-      <c r="T19">
+        <v>1.7507958516718784E-4</v>
+      </c>
+      <c r="U19" s="7">
         <f t="shared" si="19"/>
-        <v>1.7507958516718784E-4</v>
-      </c>
-      <c r="U19" s="7">
-        <f t="shared" si="20"/>
         <v>1.8185712445320415E-4</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>189.65517241379308</v>
       </c>
       <c r="B20" s="6">
@@ -2195,7 +2188,7 @@
         <v>0.87743591814182154</v>
       </c>
       <c r="D20" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.127148208755053E-19</v>
       </c>
       <c r="E20">
@@ -2203,7 +2196,7 @@
         <v>5.5176117935990537E-21</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20:F23" si="25">F19</f>
+        <f t="shared" ref="F20:F23" si="24">F19</f>
         <v>1.2548742632384603E-21</v>
       </c>
       <c r="G20">
@@ -2211,51 +2204,49 @@
         <v>3.2250268565228426E-21</v>
       </c>
       <c r="H20" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>4.891981462296756E-21</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="19">
+      <c r="K20" s="6">
         <f>K19/K18*100</f>
         <v>4.328326049495538</v>
       </c>
       <c r="M20" s="4">
+        <f t="shared" ref="M18:M29" si="25">N5/M5*10^6</f>
+        <v>1511.3421550094517</v>
+      </c>
+      <c r="N20" s="6">
         <f t="shared" si="14"/>
-        <v>1511.3421550094517</v>
-      </c>
-      <c r="N20" s="6">
+        <v>1.7128769397623171</v>
+      </c>
+      <c r="P20" s="7">
         <f t="shared" si="15"/>
-        <v>1.7128769397623171</v>
-      </c>
-      <c r="P20" s="7">
+        <v>4.9087844408805857E-3</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="16"/>
-        <v>4.9087844408805857E-3</v>
-      </c>
-      <c r="Q20">
+        <v>1.4492989326860903</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="23"/>
+        <v>6.8124352205131461E-5</v>
+      </c>
+      <c r="S20">
         <f t="shared" si="17"/>
-        <v>1.4492989326860903</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="24"/>
-        <v>6.8124352205131461E-5</v>
-      </c>
-      <c r="S20">
+        <v>7.1142960509543203E-5</v>
+      </c>
+      <c r="T20">
         <f t="shared" si="18"/>
-        <v>7.1142960509543203E-5</v>
-      </c>
-      <c r="T20">
+        <v>1.7507958516718784E-4</v>
+      </c>
+      <c r="U20" s="7">
         <f t="shared" si="19"/>
-        <v>1.7507958516718784E-4</v>
-      </c>
-      <c r="U20" s="7">
-        <f t="shared" si="20"/>
         <v>1.8139001369090518E-4</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>156.97674418604652</v>
       </c>
       <c r="B21" s="6">
@@ -2263,7 +2254,7 @@
         <v>0.8407357711465534</v>
       </c>
       <c r="D21" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.1615820303232954E-19</v>
       </c>
       <c r="E21">
@@ -2271,7 +2262,7 @@
         <v>5.7506666267643005E-21</v>
       </c>
       <c r="F21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1.2548742632384603E-21</v>
       </c>
       <c r="G21">
@@ -2279,53 +2270,52 @@
         <v>3.2250268565228426E-21</v>
       </c>
       <c r="H21" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>5.0098552943879775E-21</v>
       </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18" t="s">
+      <c r="J21" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21" s="8">
         <f>AVERAGE(D26:D31)</f>
         <v>0.72035832944118861</v>
       </c>
       <c r="M21" s="4">
+        <f t="shared" si="25"/>
+        <v>1476.7225325884544</v>
+      </c>
+      <c r="N21" s="6">
         <f t="shared" si="14"/>
-        <v>1476.7225325884544</v>
-      </c>
-      <c r="N21" s="6">
+        <v>1.6605720256319807</v>
+      </c>
+      <c r="P21" s="7">
         <f t="shared" si="15"/>
-        <v>1.6605720256319807</v>
-      </c>
-      <c r="P21" s="7">
+        <v>4.7126861323383961E-3</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="16"/>
-        <v>4.7126861323383961E-3</v>
-      </c>
-      <c r="Q21">
+        <v>1.4390126787360384</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="23"/>
+        <v>6.8124352205131461E-5</v>
+      </c>
+      <c r="S21">
         <f t="shared" si="17"/>
-        <v>1.4390126787360384</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="24"/>
-        <v>6.8124352205131461E-5</v>
-      </c>
-      <c r="S21">
+        <v>6.781615095338456E-5</v>
+      </c>
+      <c r="T21">
         <f t="shared" si="18"/>
-        <v>6.781615095338456E-5</v>
-      </c>
-      <c r="T21">
+        <v>1.7507958516718784E-4</v>
+      </c>
+      <c r="U21" s="7">
         <f t="shared" si="19"/>
-        <v>1.7507958516718784E-4</v>
-      </c>
-      <c r="U21" s="7">
-        <f t="shared" si="20"/>
         <v>1.808227713048701E-4</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>130.81861958266452</v>
       </c>
       <c r="B22" s="6">
@@ -2333,7 +2323,7 @@
         <v>0.80940646591096255</v>
       </c>
       <c r="D22" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.181390822733377E-19</v>
       </c>
       <c r="E22">
@@ -2341,7 +2331,7 @@
         <v>5.9378747334310988E-21</v>
       </c>
       <c r="F22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1.2548742632384603E-21</v>
       </c>
       <c r="G22">
@@ -2349,53 +2339,52 @@
         <v>3.2250268565228426E-21</v>
       </c>
       <c r="H22" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>5.1059944012168484E-21</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18" t="s">
+      <c r="J22" t="s">
         <v>25</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="8">
         <f>AVERAGE(I26:I31)</f>
         <v>2.6458268525410569E-2</v>
       </c>
       <c r="M22" s="4">
+        <f t="shared" si="25"/>
+        <v>1446.6911764705883</v>
+      </c>
+      <c r="N22" s="6">
         <f t="shared" si="14"/>
-        <v>1446.6911764705883</v>
-      </c>
-      <c r="N22" s="6">
+        <v>1.6164233757570441</v>
+      </c>
+      <c r="P22" s="7">
         <f t="shared" si="15"/>
-        <v>1.6164233757570441</v>
-      </c>
-      <c r="P22" s="7">
+        <v>4.586475181624655E-3</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="16"/>
-        <v>4.586475181624655E-3</v>
-      </c>
-      <c r="Q22">
+        <v>1.419794785060563</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="23"/>
+        <v>6.8124352205131461E-5</v>
+      </c>
+      <c r="S22">
         <f t="shared" si="17"/>
-        <v>1.419794785060563</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="24"/>
-        <v>6.8124352205131461E-5</v>
-      </c>
-      <c r="S22">
+        <v>6.5118535446803834E-5</v>
+      </c>
+      <c r="T22">
         <f t="shared" si="18"/>
-        <v>6.5118535446803834E-5</v>
-      </c>
-      <c r="T22">
+        <v>1.7507958516718784E-4</v>
+      </c>
+      <c r="U22" s="7">
         <f t="shared" si="19"/>
-        <v>1.7507958516718784E-4</v>
-      </c>
-      <c r="U22" s="7">
-        <f t="shared" si="20"/>
         <v>1.803815231101314E-4</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>98.591549295774641</v>
       </c>
       <c r="B23" s="6">
@@ -2403,7 +2392,7 @@
         <v>0.78626634846423615</v>
       </c>
       <c r="D23" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.1061963431484536E-19</v>
       </c>
       <c r="E23">
@@ -2411,7 +2400,7 @@
         <v>5.7638016965241742E-21</v>
       </c>
       <c r="F23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1.2548742632384603E-21</v>
       </c>
       <c r="G23">
@@ -2419,72 +2408,69 @@
         <v>3.2250268565228426E-21</v>
       </c>
       <c r="H23" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>5.0165595117577266E-21</v>
       </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="19">
+      <c r="K23" s="6">
         <f>K22/K21*100</f>
         <v>3.6729315736427077</v>
       </c>
-      <c r="L23" s="18"/>
-      <c r="M23" s="24">
+      <c r="M23" s="18">
         <f>N8/M8*10^6</f>
         <v>1420.5267938237967</v>
       </c>
-      <c r="N23" s="25">
+      <c r="N23" s="19">
+        <f t="shared" si="14"/>
+        <v>1.5778468331606008</v>
+      </c>
+      <c r="P23" s="7">
         <f t="shared" si="15"/>
-        <v>1.5778468331606008</v>
-      </c>
-      <c r="P23" s="7">
+        <v>4.5879322050585728E-3</v>
+      </c>
+      <c r="Q23">
         <f t="shared" si="16"/>
-        <v>4.5879322050585728E-3</v>
-      </c>
-      <c r="Q23">
+        <v>1.3732511564955834</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="23"/>
+        <v>6.8124352205131461E-5</v>
+      </c>
+      <c r="S23">
         <f t="shared" si="17"/>
-        <v>1.3732511564955834</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="24"/>
-        <v>6.8124352205131461E-5</v>
-      </c>
-      <c r="S23">
+        <v>6.3003832065200167E-5</v>
+      </c>
+      <c r="T23">
         <f t="shared" si="18"/>
-        <v>6.3003832065200167E-5</v>
-      </c>
-      <c r="T23">
+        <v>1.7507958516718784E-4</v>
+      </c>
+      <c r="U23" s="7">
         <f t="shared" si="19"/>
-        <v>1.7507958516718784E-4</v>
-      </c>
-      <c r="U23" s="7">
-        <f t="shared" si="20"/>
         <v>1.800474263756423E-4</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>80.398162327718211</v>
       </c>
       <c r="B24" s="6">
         <f t="shared" si="11"/>
         <v>0.76816747807909602</v>
       </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
       <c r="M24" s="4">
+        <f t="shared" si="25"/>
+        <v>1391.0313901345291</v>
+      </c>
+      <c r="N24" s="6">
         <f t="shared" si="14"/>
-        <v>1391.0313901345291</v>
-      </c>
-      <c r="N24" s="6">
-        <f t="shared" si="15"/>
         <v>1.5364797545910764</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>66.215199398043637</v>
       </c>
       <c r="B25" s="6">
@@ -2514,20 +2500,17 @@
         <v>4.0006288115691229</v>
       </c>
       <c r="M25" s="4">
+        <f t="shared" si="25"/>
+        <v>1361.9469026548672</v>
+      </c>
+      <c r="N25" s="6">
         <f t="shared" si="14"/>
-        <v>1361.9469026548672</v>
-      </c>
-      <c r="N25" s="6">
-        <f t="shared" si="15"/>
         <v>1.4952608366354281</v>
       </c>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>55.018587360594793</v>
       </c>
       <c r="B26" s="6">
@@ -2559,25 +2542,24 @@
         <v>2.6257451637636056E-2</v>
       </c>
       <c r="M26" s="4">
+        <f t="shared" si="25"/>
+        <v>1343.8596491228072</v>
+      </c>
+      <c r="N26" s="6">
         <f t="shared" si="14"/>
-        <v>1343.8596491228072</v>
-      </c>
-      <c r="N26" s="6">
-        <f t="shared" si="15"/>
         <v>1.4693856367151517</v>
       </c>
-      <c r="R26" s="18" t="s">
+      <c r="R26" t="s">
         <v>29</v>
       </c>
-      <c r="S26" s="22">
+      <c r="S26" s="7">
         <f>SUM(P18:P23)/6</f>
         <v>4.7752272524035798E-3</v>
       </c>
-      <c r="T26" s="18"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>45.621780721118469</v>
       </c>
       <c r="B27" s="6">
@@ -2609,25 +2591,24 @@
         <v>2.6779717149030522E-2</v>
       </c>
       <c r="M27" s="4">
+        <f t="shared" si="25"/>
+        <v>1315.151515151515</v>
+      </c>
+      <c r="N27" s="6">
         <f t="shared" si="14"/>
-        <v>1315.151515151515</v>
-      </c>
-      <c r="N27" s="6">
-        <f t="shared" si="15"/>
         <v>1.430439158906039</v>
       </c>
-      <c r="R27" s="23" t="s">
+      <c r="R27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="S27" s="22">
+      <c r="S27" s="7">
         <f>AVERAGE(U18:U23)</f>
         <v>1.8113008513057638E-4</v>
       </c>
-      <c r="T27" s="18"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>38.686131386861312</v>
       </c>
       <c r="B28" s="6">
@@ -2659,23 +2640,21 @@
         <v>2.5836112880479763E-2</v>
       </c>
       <c r="M28" s="4">
+        <f t="shared" si="25"/>
+        <v>1288.8888888888889</v>
+      </c>
+      <c r="N28" s="6">
         <f t="shared" si="14"/>
-        <v>1288.8888888888889</v>
-      </c>
-      <c r="N28" s="6">
-        <f t="shared" si="15"/>
         <v>1.3942983591440039</v>
       </c>
-      <c r="R28" s="18"/>
-      <c r="S28" s="19">
+      <c r="S28" s="6">
         <f>S27/S26*100</f>
         <v>3.7931196895269381</v>
       </c>
-      <c r="T28" s="18"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>32.608695652173907</v>
       </c>
       <c r="B29" s="6">
@@ -2707,16 +2686,15 @@
         <v>2.6602866738627398E-2</v>
       </c>
       <c r="M29" s="4">
+        <f t="shared" si="25"/>
+        <v>1262.668918918919</v>
+      </c>
+      <c r="N29" s="6">
         <f t="shared" si="14"/>
-        <v>1262.668918918919</v>
-      </c>
-      <c r="N29" s="6">
-        <f t="shared" si="15"/>
         <v>1.3603828264503441</v>
       </c>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="18"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D30" s="8">
@@ -2743,9 +2721,6 @@
         <f t="shared" si="30"/>
         <v>2.7180150760156164E-2</v>
       </c>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D31" s="8">
